--- a/CSP/data/test_customer_data.xlsx
+++ b/CSP/data/test_customer_data.xlsx
@@ -409,7 +409,7 @@
     <t>输入新增的客户名称</t>
   </si>
   <si>
-    <t>测试100058</t>
+    <t>测试100061</t>
   </si>
   <si>
     <t>操作选择所属csp下拉框</t>
@@ -664,10 +664,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -678,9 +678,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -694,9 +693,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -711,31 +709,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -750,42 +731,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -808,7 +769,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -817,6 +809,14 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -831,7 +831,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,25 +873,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,49 +891,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,7 +915,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -945,13 +939,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,55 +1005,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1041,6 +1041,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1055,17 +1070,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1104,39 +1137,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1145,10 +1145,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1157,133 +1157,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1663,7 +1663,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A7" sqref="$A7:$XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>

--- a/CSP/data/test_customer_data.xlsx
+++ b/CSP/data/test_customer_data.xlsx
@@ -409,7 +409,7 @@
     <t>输入新增的客户名称</t>
   </si>
   <si>
-    <t>测试100061</t>
+    <t>测试100064</t>
   </si>
   <si>
     <t>操作选择所属csp下拉框</t>
@@ -665,9 +665,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -680,58 +680,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -753,6 +701,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -762,9 +717,40 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -775,9 +761,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -798,14 +783,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -821,6 +798,29 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -831,7 +831,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,7 +891,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,91 +903,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,13 +921,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -975,31 +999,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1011,7 +1011,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1040,6 +1040,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1051,21 +1075,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1094,11 +1103,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1106,23 +1121,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1145,10 +1145,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1157,133 +1157,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
